--- a/data/CBS/NFIB/old/Borrowing Needs Not Satisfied.xlsx
+++ b/data/CBS/NFIB/old/Borrowing Needs Not Satisfied.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="354">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1049,30 +1054,63 @@
   </si>
   <si>
     <t>2020/12/1</t>
+  </si>
+  <si>
+    <t>2021/1/1</t>
+  </si>
+  <si>
+    <t>2021/2/1</t>
+  </si>
+  <si>
+    <t>2021/3/1</t>
+  </si>
+  <si>
+    <t>2021/4/1</t>
+  </si>
+  <si>
+    <t>2021/5/1</t>
+  </si>
+  <si>
+    <t>2021/6/1</t>
+  </si>
+  <si>
+    <t>2021/7/1</t>
+  </si>
+  <si>
+    <t>2021/8/1</t>
+  </si>
+  <si>
+    <t>2021/10/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,30 +1132,333 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xfid="0" fontId="1" applyFont="1" fillId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane state="frozen" ySplit="1" topLeftCell="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="14.290714285714287"/>
-    <col min="2" max="2" customWidth="1" width="14.290714285714287"/>
+    <col min="1" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1141,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1205,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1245,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1253,7 +1594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1293,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1301,7 +1642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1317,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1325,7 +1666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +1674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1349,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1357,7 +1698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1365,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1373,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1381,7 +1722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1389,7 +1730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1397,7 +1738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1405,7 +1746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1413,7 +1754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1421,7 +1762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1429,7 +1770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1437,7 +1778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1445,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1453,7 +1794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1461,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1469,7 +1810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1477,7 +1818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1485,7 +1826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1493,7 +1834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1501,7 +1842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1509,7 +1850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1517,7 +1858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1525,7 +1866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1533,7 +1874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1541,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1549,7 +1890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1557,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -1565,7 +1906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1573,7 +1914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -1581,7 +1922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1589,7 +1930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1597,7 +1938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1605,7 +1946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -1613,7 +1954,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -1621,7 +1962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1629,7 +1970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1637,7 +1978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -1645,7 +1986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -1653,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -1661,7 +2002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -1669,7 +2010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -1677,7 +2018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -1685,7 +2026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -1693,7 +2034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -1701,7 +2042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -1709,7 +2050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -1717,7 +2058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -1725,7 +2066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -1733,7 +2074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -1741,7 +2082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -1749,7 +2090,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -1757,7 +2098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -1765,7 +2106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -1773,7 +2114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -1781,7 +2122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -1789,7 +2130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -1797,7 +2138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -1805,7 +2146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -1813,7 +2154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -1821,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -1829,7 +2170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -1837,7 +2178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -1845,7 +2186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -1853,7 +2194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -1861,7 +2202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -1869,7 +2210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -1877,7 +2218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -1885,7 +2226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -1893,7 +2234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -1901,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -1909,7 +2250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -1917,7 +2258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -1925,7 +2266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -1933,7 +2274,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -1941,7 +2282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>111</v>
       </c>
@@ -1949,7 +2290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -1957,7 +2298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -1965,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -1973,7 +2314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -1981,7 +2322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -1989,7 +2330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -1997,7 +2338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -2005,7 +2346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -2013,7 +2354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -2021,7 +2362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -2029,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -2037,7 +2378,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -2045,7 +2386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -2053,7 +2394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -2061,7 +2402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -2069,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -2077,7 +2418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -2085,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -2093,7 +2434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -2101,7 +2442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -2109,7 +2450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -2117,7 +2458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -2125,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -2133,7 +2474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -2141,7 +2482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -2149,7 +2490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -2157,7 +2498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -2165,7 +2506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -2173,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -2181,7 +2522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -2189,7 +2530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -2197,7 +2538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -2205,7 +2546,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -2213,7 +2554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -2221,7 +2562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -2229,7 +2570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -2237,7 +2578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -2245,7 +2586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -2253,7 +2594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -2261,7 +2602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -2269,7 +2610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -2277,7 +2618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -2285,7 +2626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -2293,7 +2634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -2301,7 +2642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -2309,7 +2650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -2317,7 +2658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -2325,7 +2666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -2333,7 +2674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -2341,7 +2682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -2349,7 +2690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -2357,7 +2698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -2365,7 +2706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -2373,7 +2714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -2381,7 +2722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -2389,7 +2730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -2397,7 +2738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -2405,7 +2746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -2413,7 +2754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -2421,7 +2762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -2429,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -2437,7 +2778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -2445,7 +2786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -2453,7 +2794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -2461,7 +2802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -2469,7 +2810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -2477,7 +2818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -2485,7 +2826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -2493,7 +2834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -2501,7 +2842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -2509,7 +2850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -2517,7 +2858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -2525,7 +2866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -2533,7 +2874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -2541,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -2549,7 +2890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -2557,7 +2898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -2565,7 +2906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -2573,7 +2914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -2581,7 +2922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -2589,7 +2930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -2597,7 +2938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -2605,7 +2946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -2613,7 +2954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -2621,7 +2962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -2629,7 +2970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -2637,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -2645,7 +2986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -2653,7 +2994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -2661,7 +3002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -2669,7 +3010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -2677,7 +3018,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>205</v>
       </c>
@@ -2685,7 +3026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>206</v>
       </c>
@@ -2693,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>207</v>
       </c>
@@ -2701,7 +3042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -2709,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -2717,7 +3058,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>210</v>
       </c>
@@ -2725,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>211</v>
       </c>
@@ -2733,7 +3074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -2741,7 +3082,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>214</v>
       </c>
@@ -2749,7 +3090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>215</v>
       </c>
@@ -2757,7 +3098,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>216</v>
       </c>
@@ -2765,7 +3106,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>217</v>
       </c>
@@ -2773,7 +3114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>218</v>
       </c>
@@ -2781,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>219</v>
       </c>
@@ -2789,7 +3130,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>220</v>
       </c>
@@ -2797,7 +3138,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>221</v>
       </c>
@@ -2805,7 +3146,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>222</v>
       </c>
@@ -2813,7 +3154,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>223</v>
       </c>
@@ -2821,7 +3162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>224</v>
       </c>
@@ -2829,7 +3170,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>225</v>
       </c>
@@ -2837,7 +3178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>226</v>
       </c>
@@ -2845,7 +3186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>227</v>
       </c>
@@ -2853,7 +3194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>228</v>
       </c>
@@ -2861,7 +3202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>229</v>
       </c>
@@ -2869,7 +3210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -2877,7 +3218,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>231</v>
       </c>
@@ -2885,7 +3226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>232</v>
       </c>
@@ -2893,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>233</v>
       </c>
@@ -2901,7 +3242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>234</v>
       </c>
@@ -2909,7 +3250,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>235</v>
       </c>
@@ -2917,7 +3258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>236</v>
       </c>
@@ -2925,7 +3266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>237</v>
       </c>
@@ -2933,7 +3274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>238</v>
       </c>
@@ -2941,7 +3282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>239</v>
       </c>
@@ -2949,7 +3290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>240</v>
       </c>
@@ -2957,7 +3298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>241</v>
       </c>
@@ -2965,7 +3306,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>242</v>
       </c>
@@ -2973,7 +3314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>243</v>
       </c>
@@ -2981,7 +3322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>244</v>
       </c>
@@ -2989,7 +3330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>245</v>
       </c>
@@ -2997,7 +3338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>246</v>
       </c>
@@ -3005,7 +3346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>247</v>
       </c>
@@ -3013,7 +3354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>248</v>
       </c>
@@ -3021,7 +3362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>249</v>
       </c>
@@ -3029,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>250</v>
       </c>
@@ -3037,7 +3378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>251</v>
       </c>
@@ -3045,7 +3386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>252</v>
       </c>
@@ -3053,7 +3394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>253</v>
       </c>
@@ -3061,7 +3402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>254</v>
       </c>
@@ -3069,7 +3410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>255</v>
       </c>
@@ -3077,7 +3418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>256</v>
       </c>
@@ -3085,7 +3426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>257</v>
       </c>
@@ -3093,7 +3434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>258</v>
       </c>
@@ -3101,7 +3442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>259</v>
       </c>
@@ -3109,7 +3450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>260</v>
       </c>
@@ -3117,7 +3458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>261</v>
       </c>
@@ -3125,7 +3466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>262</v>
       </c>
@@ -3133,7 +3474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>263</v>
       </c>
@@ -3141,7 +3482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>264</v>
       </c>
@@ -3149,7 +3490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>265</v>
       </c>
@@ -3157,7 +3498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>266</v>
       </c>
@@ -3165,7 +3506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>267</v>
       </c>
@@ -3173,7 +3514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>268</v>
       </c>
@@ -3181,7 +3522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>269</v>
       </c>
@@ -3189,7 +3530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>270</v>
       </c>
@@ -3197,7 +3538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>271</v>
       </c>
@@ -3205,7 +3546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>272</v>
       </c>
@@ -3213,7 +3554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>273</v>
       </c>
@@ -3221,7 +3562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>274</v>
       </c>
@@ -3229,7 +3570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>275</v>
       </c>
@@ -3237,7 +3578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>276</v>
       </c>
@@ -3245,7 +3586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>277</v>
       </c>
@@ -3253,7 +3594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>278</v>
       </c>
@@ -3261,7 +3602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>279</v>
       </c>
@@ -3269,7 +3610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>280</v>
       </c>
@@ -3277,7 +3618,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>281</v>
       </c>
@@ -3285,7 +3626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>282</v>
       </c>
@@ -3293,7 +3634,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>283</v>
       </c>
@@ -3301,7 +3642,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>284</v>
       </c>
@@ -3309,7 +3650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>285</v>
       </c>
@@ -3317,7 +3658,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>286</v>
       </c>
@@ -3325,7 +3666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>287</v>
       </c>
@@ -3333,7 +3674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>288</v>
       </c>
@@ -3341,7 +3682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>289</v>
       </c>
@@ -3349,7 +3690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>290</v>
       </c>
@@ -3357,7 +3698,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -3365,7 +3706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>292</v>
       </c>
@@ -3373,7 +3714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -3381,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>294</v>
       </c>
@@ -3389,7 +3730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>295</v>
       </c>
@@ -3397,7 +3738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>296</v>
       </c>
@@ -3405,7 +3746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>297</v>
       </c>
@@ -3413,7 +3754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>298</v>
       </c>
@@ -3421,7 +3762,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>299</v>
       </c>
@@ -3429,7 +3770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>300</v>
       </c>
@@ -3437,7 +3778,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>301</v>
       </c>
@@ -3445,7 +3786,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>302</v>
       </c>
@@ -3453,7 +3794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>303</v>
       </c>
@@ -3461,7 +3802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>304</v>
       </c>
@@ -3469,7 +3810,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>305</v>
       </c>
@@ -3477,7 +3818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>306</v>
       </c>
@@ -3485,7 +3826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>307</v>
       </c>
@@ -3493,7 +3834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>308</v>
       </c>
@@ -3501,7 +3842,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>309</v>
       </c>
@@ -3509,7 +3850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>310</v>
       </c>
@@ -3517,7 +3858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>311</v>
       </c>
@@ -3525,7 +3866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>312</v>
       </c>
@@ -3533,7 +3874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>313</v>
       </c>
@@ -3541,7 +3882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>314</v>
       </c>
@@ -3549,7 +3890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>315</v>
       </c>
@@ -3557,7 +3898,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>316</v>
       </c>
@@ -3565,7 +3906,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>317</v>
       </c>
@@ -3573,7 +3914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>318</v>
       </c>
@@ -3581,7 +3922,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>319</v>
       </c>
@@ -3589,7 +3930,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>320</v>
       </c>
@@ -3597,7 +3938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>321</v>
       </c>
@@ -3605,7 +3946,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>322</v>
       </c>
@@ -3613,7 +3954,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>323</v>
       </c>
@@ -3621,7 +3962,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>324</v>
       </c>
@@ -3629,7 +3970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>325</v>
       </c>
@@ -3637,7 +3978,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>326</v>
       </c>
@@ -3645,7 +3986,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>327</v>
       </c>
@@ -3653,7 +3994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>328</v>
       </c>
@@ -3661,7 +4002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>329</v>
       </c>
@@ -3669,7 +4010,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>330</v>
       </c>
@@ -3677,7 +4018,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>331</v>
       </c>
@@ -3685,7 +4026,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>332</v>
       </c>
@@ -3693,7 +4034,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>333</v>
       </c>
@@ -3701,7 +4042,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>334</v>
       </c>
@@ -3709,7 +4050,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>335</v>
       </c>
@@ -3717,7 +4058,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>336</v>
       </c>
@@ -3725,7 +4066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>337</v>
       </c>
@@ -3733,7 +4074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>338</v>
       </c>
@@ -3741,7 +4082,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>339</v>
       </c>
@@ -3749,7 +4090,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>340</v>
       </c>
@@ -3757,7 +4098,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>341</v>
       </c>
@@ -3765,7 +4106,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>342</v>
       </c>
@@ -3773,7 +4114,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>343</v>
       </c>
@@ -3781,7 +4122,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>344</v>
       </c>
@@ -3789,8 +4130,81 @@
         <v>123</v>
       </c>
     </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>345</v>
+      </c>
+      <c r="B335" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>346</v>
+      </c>
+      <c r="B336" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>347</v>
+      </c>
+      <c r="B337" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>348</v>
+      </c>
+      <c r="B338" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>349</v>
+      </c>
+      <c r="B339" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>350</v>
+      </c>
+      <c r="B340" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>351</v>
+      </c>
+      <c r="B341" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>352</v>
+      </c>
+      <c r="B342" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>353</v>
+      </c>
+      <c r="B343" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>